--- a/NformTester/NformTester/Keywordscripts/600.80.20.20_TaskBarButtonFlashAlert.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.80.20.20_TaskBarButtonFlashAlert.xlsx
@@ -4672,13 +4672,13 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="20.375" customWidth="1"/>
